--- a/doc/【画面設計】番組詳細画面（ProgramDetail.vue).xlsx
+++ b/doc/【画面設計】番組詳細画面（ProgramDetail.vue).xlsx
@@ -10,15 +10,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mgfJ9DO1NLvBR6yGBsNvTve4N4//w=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="gZ27+B2sjoO+B1lgv+vzLf8SEgejJwriLbVTsZEHWZA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="107">
   <si>
     <t>Java課題(2023上期）</t>
   </si>
@@ -65,6 +65,12 @@
     <t>新規</t>
   </si>
   <si>
+    <t>タレント名のクリック時の遷移先は変更 → 8/14 取り消し</t>
+  </si>
+  <si>
+    <t>TOPリンクボタンの変更</t>
+  </si>
+  <si>
     <t>ProgramDetail</t>
   </si>
   <si>
@@ -105,13 +111,13 @@
     <t>YYYYMMDD</t>
   </si>
   <si>
-    <t>対象年月</t>
+    <t>年月</t>
   </si>
   <si>
     <t>６桁（YYYYMM)</t>
   </si>
   <si>
-    <t>対象週</t>
+    <t>週</t>
   </si>
   <si>
     <t>１桁</t>
@@ -143,6 +149,12 @@
   </si>
   <si>
     <t>ページングリンククリック時に、次の10件、前の10件へ遷移できるようにする。</t>
+  </si>
+  <si>
+    <t>TOPリンククリック時</t>
+  </si>
+  <si>
+    <t>TOPリンククリック時に、画面「週間タレント出演画面（WeekTalentShutsuen）」へ遷移する。</t>
   </si>
   <si>
     <t>4.【フォーム情報】</t>
@@ -185,6 +197,12 @@
   </si>
   <si>
     <t>（出演者情報）</t>
+  </si>
+  <si>
+    <t>TOP</t>
+  </si>
+  <si>
+    <t>linkbutton</t>
   </si>
   <si>
     <t>番組名</t>
@@ -260,10 +278,7 @@
     <t>ヘッダー</t>
   </si>
   <si>
-    <t>linkbutton</t>
-  </si>
-  <si>
-    <t>対象の番組のオンエア日の内容に出演する出演者をリンクボタンで表示する。リンクボタンをクリック時に、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
+    <t>対象の番組のオンエア日の内容に出演する出演者をリンクボタンで表示する。リンクボタンをクリック時に、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。遷移時に年月、週、タレント名を渡して、次の画面で検索状態で表示させる。</t>
   </si>
   <si>
     <t>オンエア管理テーブル
@@ -325,7 +340,7 @@
     <t>※上記のチェック結果を画面上部に表示する。</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-3. API「 番組出演者検索」を呼び出す（API情報は別シート_API情報を参照）</t>
+    <t xml:space="preserve">　　2-2-3. API「 番組出演者検索BFF」を呼び出す（API情報は別ブック_API一覧を参照）</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-2-4.【2-2-3】で取得した結果が存在する場合は、データ部へ設定する。</t>
@@ -340,13 +355,19 @@
     <t xml:space="preserve"> 2.2 出演名クリック時</t>
   </si>
   <si>
-    <t xml:space="preserve">　　2-2-1.タレントID、パラメータ.対象年月、パラメータ.対象週をキーとして、次画面「タレント詳細画面（TalentDetail.vue）」へ遷移する。</t>
+    <t xml:space="preserve">　　2-2-1.パラメータ.年月、パラメータ.週、タレント名をキーとして、次画面「タレント詳細画面（TalentDetail.vue)」へ遷移する。</t>
   </si>
   <si>
     <t xml:space="preserve"> 2.3 ページングリンククリック時</t>
   </si>
   <si>
     <t xml:space="preserve">　　2-3-1. クリックした番号の領域に保管されている内容を10件表示させる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.4 TOPリンククリック時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　2-4-1. 画面「週間タレント出演画面（WeekTalentShutsuen）」へ遷移する。</t>
   </si>
 </sst>
 </file>
@@ -356,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -371,11 +392,6 @@
     <font/>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
     </font>
@@ -396,7 +412,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -579,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -613,17 +628,14 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
@@ -632,13 +644,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
@@ -650,7 +665,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -664,65 +679,68 @@
     <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="10" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -733,16 +751,19 @@
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -751,17 +772,14 @@
     <xf borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,11 +798,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>-180975</xdr:rowOff>
+      <xdr:rowOff>-57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9229725" cy="4924425"/>
+    <xdr:ext cx="8715375" cy="4695825"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="画像"/>
@@ -1072,17 +1090,21 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>45048.0</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="13"/>
+      <c r="H2" s="13">
+        <v>45152.0</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -1103,176 +1125,192 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>1.0</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>45048.0</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="16"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>45129.0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="B7" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>45152.0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="30" ht="18.75" customHeight="1"/>
     <row r="31" ht="18.75" customHeight="1"/>
@@ -2326,8 +2364,8 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="11" t="s">
-        <v>15</v>
+      <c r="D2" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>8</v>
@@ -2336,14 +2374,18 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>45048.0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13"/>
+      <c r="L2" s="13">
+        <v>45152.0</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -2389,7 +2431,7 @@
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3091,7 +3133,7 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -3121,7 +3163,7 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3253,7 +3295,7 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -3283,13 +3325,13 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -3316,14 +3358,14 @@
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="6"/>
-      <c r="B37" s="28" t="s">
-        <v>23</v>
+      <c r="B37" s="12" t="s">
+        <v>25</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>24</v>
+      <c r="C37" s="12" t="s">
+        <v>26</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>25</v>
+      <c r="D37" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -3350,14 +3392,14 @@
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="6"/>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>27</v>
+      <c r="D38" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -3383,72 +3425,72 @@
       <c r="Z38" s="6"/>
     </row>
     <row r="39" ht="16.5" customHeight="1">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30" t="s">
-        <v>28</v>
+      <c r="A39" s="28"/>
+      <c r="B39" s="29" t="s">
+        <v>30</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>24</v>
+      <c r="C39" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
     </row>
     <row r="40" ht="16.5" customHeight="1">
-      <c r="A40" s="29"/>
-      <c r="B40" s="33" t="s">
-        <v>30</v>
+      <c r="A40" s="28"/>
+      <c r="B40" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="6"/>
@@ -3481,7 +3523,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -3511,10 +3553,10 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="6"/>
@@ -3542,11 +3584,11 @@
     </row>
     <row r="44" ht="33.75" customHeight="1">
       <c r="A44" s="6"/>
-      <c r="B44" s="13" t="s">
-        <v>35</v>
+      <c r="B44" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="6"/>
@@ -3574,11 +3616,11 @@
     </row>
     <row r="45" ht="48.0" customHeight="1">
       <c r="A45" s="6"/>
-      <c r="B45" s="28" t="s">
-        <v>37</v>
+      <c r="B45" s="12" t="s">
+        <v>39</v>
       </c>
-      <c r="C45" s="35" t="s">
-        <v>38</v>
+      <c r="C45" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="6"/>
@@ -3606,11 +3648,11 @@
     </row>
     <row r="46" ht="38.25" customHeight="1">
       <c r="A46" s="6"/>
-      <c r="B46" s="13" t="s">
-        <v>39</v>
+      <c r="B46" s="12" t="s">
+        <v>41</v>
       </c>
-      <c r="C46" s="36" t="s">
-        <v>40</v>
+      <c r="C46" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="6"/>
@@ -3636,11 +3678,15 @@
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
     </row>
-    <row r="47" ht="16.5" customHeight="1">
+    <row r="47" ht="36.0" customHeight="1">
       <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="22"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -3666,16 +3712,12 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -3699,14 +3741,14 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -3730,32 +3772,20 @@
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="6"/>
-      <c r="B50" s="27" t="s">
-        <v>44</v>
+      <c r="B50" s="6" t="s">
+        <v>47</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>46</v>
-      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H50" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="27" t="s">
-        <v>46</v>
-      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
@@ -3772,24 +3802,34 @@
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
     </row>
-    <row r="51" ht="94.5" customHeight="1">
+    <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="27" t="s">
         <v>50</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>51</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
+      <c r="G51" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H51" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
@@ -3806,18 +3846,24 @@
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
     </row>
-    <row r="52" ht="16.5" customHeight="1">
+    <row r="52" ht="94.5" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
+      <c r="B52" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>55</v>
+      </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -3836,16 +3882,12 @@
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="40" t="s">
-        <v>52</v>
-      </c>
+      <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -3868,32 +3910,20 @@
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="27" t="s">
-        <v>44</v>
+      <c r="B54" s="6" t="s">
+        <v>56</v>
       </c>
-      <c r="C54" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="27" t="s">
-        <v>46</v>
-      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="27" t="s">
-        <v>47</v>
+      <c r="G54" s="6" t="s">
+        <v>57</v>
       </c>
-      <c r="H54" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I54" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>46</v>
-      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -3912,22 +3942,32 @@
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="41" t="s">
-        <v>54</v>
+      <c r="B55" s="27" t="s">
+        <v>48</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="27" t="s">
         <v>50</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
+      <c r="G55" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K55" s="27" t="s">
+        <v>50</v>
+      </c>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -3944,34 +3984,24 @@
       <c r="Y55" s="6"/>
       <c r="Z55" s="6"/>
     </row>
-    <row r="56" ht="39.75" customHeight="1">
+    <row r="56" ht="41.25" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="42" t="s">
-        <v>56</v>
+      <c r="B56" s="40" t="s">
+        <v>58</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>50</v>
+      <c r="C56" s="37" t="s">
+        <v>59</v>
       </c>
-      <c r="D56" s="38" t="s">
-        <v>57</v>
+      <c r="D56" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K56" s="38" t="s">
-        <v>60</v>
-      </c>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
@@ -3990,14 +4020,14 @@
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="41" t="s">
-        <v>26</v>
+      <c r="B57" s="42" t="s">
+        <v>60</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>50</v>
+      <c r="C57" s="12" t="s">
+        <v>54</v>
       </c>
-      <c r="D57" s="13" t="s">
-        <v>55</v>
+      <c r="D57" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -4022,24 +4052,34 @@
       <c r="Y57" s="6"/>
       <c r="Z57" s="6"/>
     </row>
-    <row r="58" ht="84.75" customHeight="1">
+    <row r="58" ht="39.75" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="42" t="s">
-        <v>56</v>
+      <c r="B58" s="43" t="s">
+        <v>62</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>50</v>
+      <c r="C58" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
+      <c r="G58" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58" s="38" t="s">
+        <v>66</v>
+      </c>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
@@ -4057,171 +4097,163 @@
       <c r="Z58" s="6"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="29"/>
-      <c r="B59" s="43" t="s">
+      <c r="A59" s="6"/>
+      <c r="B59" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+    </row>
+    <row r="60" ht="84.75" customHeight="1">
+      <c r="A60" s="6"/>
+      <c r="B60" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="31" t="s">
-        <v>50</v>
+      <c r="C60" s="12" t="s">
+        <v>54</v>
       </c>
-      <c r="D59" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="32"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="32"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="32"/>
-      <c r="V59" s="32"/>
-      <c r="W59" s="32"/>
-      <c r="X59" s="32"/>
-      <c r="Y59" s="32"/>
-      <c r="Z59" s="32"/>
-    </row>
-    <row r="60" ht="96.75" customHeight="1">
-      <c r="A60" s="29"/>
-      <c r="B60" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60" s="32"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="H60" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="I60" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="J60" s="47" t="s">
+      <c r="D60" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K60" s="47" t="s">
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c r="A61" s="28"/>
+      <c r="B61" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="32"/>
-      <c r="V60" s="32"/>
-      <c r="W60" s="32"/>
-      <c r="X60" s="32"/>
-      <c r="Y60" s="32"/>
-      <c r="Z60" s="32"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6" t="s">
+      <c r="C61" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="31"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="31"/>
+      <c r="U61" s="31"/>
+      <c r="V61" s="31"/>
+      <c r="W61" s="31"/>
+      <c r="X61" s="31"/>
+      <c r="Y61" s="31"/>
+      <c r="Z61" s="31"/>
+    </row>
+    <row r="62" ht="96.75" customHeight="1">
+      <c r="A62" s="28"/>
+      <c r="B62" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6" t="s">
+      <c r="E62" s="31"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
+      <c r="H62" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I62" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J62" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="K62" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="31"/>
+      <c r="U62" s="31"/>
+      <c r="V62" s="31"/>
+      <c r="W62" s="31"/>
+      <c r="X62" s="31"/>
+      <c r="Y62" s="31"/>
+      <c r="Z62" s="31"/>
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="6"/>
-      <c r="B63" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>46</v>
-      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I63" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J63" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>46</v>
-      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
@@ -4240,22 +4272,20 @@
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="6"/>
-      <c r="B64" s="41" t="s">
-        <v>71</v>
+      <c r="B64" s="6" t="s">
+        <v>75</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>72</v>
-      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
+      <c r="G64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
@@ -4272,31 +4302,33 @@
       <c r="Y64" s="6"/>
       <c r="Z64" s="6"/>
     </row>
-    <row r="65" ht="67.5" customHeight="1">
+    <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="6"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="49" t="s">
-        <v>73</v>
+      <c r="B65" s="27" t="s">
+        <v>48</v>
       </c>
-      <c r="D65" s="50" t="s">
-        <v>74</v>
+      <c r="C65" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="38" t="s">
-        <v>75</v>
+      <c r="G65" s="27" t="s">
+        <v>51</v>
       </c>
-      <c r="H65" s="38" t="s">
-        <v>76</v>
+      <c r="H65" s="27" t="s">
+        <v>52</v>
       </c>
-      <c r="I65" s="37" t="s">
-        <v>77</v>
+      <c r="I65" s="27" t="s">
+        <v>23</v>
       </c>
-      <c r="J65" s="37" t="s">
-        <v>78</v>
+      <c r="J65" s="27" t="s">
+        <v>24</v>
       </c>
-      <c r="K65" s="50" t="s">
-        <v>79</v>
+      <c r="K65" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -4314,16 +4346,16 @@
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
     </row>
-    <row r="66" ht="59.25" customHeight="1">
-      <c r="A66" s="51"/>
-      <c r="B66" s="13" t="s">
-        <v>80</v>
+    <row r="66" ht="16.5" customHeight="1">
+      <c r="A66" s="6"/>
+      <c r="B66" s="42" t="s">
+        <v>77</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>73</v>
+      <c r="C66" s="12" t="s">
+        <v>54</v>
       </c>
-      <c r="D66" s="37" t="s">
-        <v>81</v>
+      <c r="D66" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -4348,18 +4380,32 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
     </row>
-    <row r="67" ht="16.5" customHeight="1">
+    <row r="67" ht="78.0" customHeight="1">
       <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="51" t="s">
+        <v>79</v>
+      </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
+      <c r="G67" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="I67" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="J67" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="K67" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
@@ -4376,18 +4422,24 @@
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
     </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
+    <row r="68" ht="59.25" customHeight="1">
+      <c r="A68" s="53"/>
+      <c r="B68" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>86</v>
+      </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
@@ -30136,8 +30188,66 @@
       <c r="Y987" s="6"/>
       <c r="Z987" s="6"/>
     </row>
+    <row r="988" ht="16.5" customHeight="1">
+      <c r="A988" s="6"/>
+      <c r="B988" s="6"/>
+      <c r="C988" s="6"/>
+      <c r="D988" s="6"/>
+      <c r="E988" s="6"/>
+      <c r="F988" s="6"/>
+      <c r="G988" s="6"/>
+      <c r="H988" s="6"/>
+      <c r="I988" s="6"/>
+      <c r="J988" s="6"/>
+      <c r="K988" s="6"/>
+      <c r="L988" s="6"/>
+      <c r="M988" s="6"/>
+      <c r="N988" s="6"/>
+      <c r="O988" s="6"/>
+      <c r="P988" s="6"/>
+      <c r="Q988" s="6"/>
+      <c r="R988" s="6"/>
+      <c r="S988" s="6"/>
+      <c r="T988" s="6"/>
+      <c r="U988" s="6"/>
+      <c r="V988" s="6"/>
+      <c r="W988" s="6"/>
+      <c r="X988" s="6"/>
+      <c r="Y988" s="6"/>
+      <c r="Z988" s="6"/>
+    </row>
+    <row r="989" ht="16.5" customHeight="1">
+      <c r="A989" s="6"/>
+      <c r="B989" s="6"/>
+      <c r="C989" s="6"/>
+      <c r="D989" s="6"/>
+      <c r="E989" s="6"/>
+      <c r="F989" s="6"/>
+      <c r="G989" s="6"/>
+      <c r="H989" s="6"/>
+      <c r="I989" s="6"/>
+      <c r="J989" s="6"/>
+      <c r="K989" s="6"/>
+      <c r="L989" s="6"/>
+      <c r="M989" s="6"/>
+      <c r="N989" s="6"/>
+      <c r="O989" s="6"/>
+      <c r="P989" s="6"/>
+      <c r="Q989" s="6"/>
+      <c r="R989" s="6"/>
+      <c r="S989" s="6"/>
+      <c r="T989" s="6"/>
+      <c r="U989" s="6"/>
+      <c r="V989" s="6"/>
+      <c r="W989" s="6"/>
+      <c r="X989" s="6"/>
+      <c r="Y989" s="6"/>
+      <c r="Z989" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
@@ -30145,7 +30255,6 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -30221,24 +30330,28 @@
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="53" t="s">
-        <v>82</v>
+      <c r="E2" s="55" t="s">
+        <v>87</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="22"/>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>45048.0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="13"/>
+      <c r="L2" s="13">
+        <v>45152.0</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -30255,741 +30368,833 @@
     </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="B4" s="54" t="s">
-        <v>83</v>
+      <c r="B4" s="56" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>33</v>
+      <c r="C5" s="57" t="s">
+        <v>35</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>34</v>
+      <c r="D5" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="E5" s="22"/>
     </row>
     <row r="6" ht="41.25" customHeight="1">
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>1.0</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>35</v>
+      <c r="C6" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E6" s="22"/>
     </row>
     <row r="7" ht="84.75" customHeight="1">
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>2.0</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>37</v>
+      <c r="C7" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="22"/>
     </row>
     <row r="8" ht="60.75" customHeight="1">
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>3.0</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>39</v>
+      <c r="C8" s="12" t="s">
+        <v>41</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>40</v>
+      <c r="D8" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" ht="18.75" customHeight="1"/>
-    <row r="10" ht="18.75" customHeight="1">
-      <c r="B10" s="54" t="s">
-        <v>85</v>
+    <row r="9" ht="40.5" customHeight="1">
+      <c r="B9" s="15">
+        <v>4.0</v>
       </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1"/>
-    <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58" t="s">
-        <v>85</v>
+      <c r="C9" s="37" t="s">
+        <v>43</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-    </row>
-    <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58" t="s">
-        <v>86</v>
+      <c r="D9" s="36" t="s">
+        <v>44</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-    </row>
-    <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-    </row>
-    <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="57"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="57"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="60" t="s">
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" ht="18.75" customHeight="1"/>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="57"/>
-    </row>
-    <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-    </row>
-    <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-    </row>
-    <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="57"/>
-      <c r="B22" s="59" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+    </row>
+    <row r="14" ht="18.75" customHeight="1">
+      <c r="A14" s="31"/>
+      <c r="B14" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="57"/>
-      <c r="B24" s="59" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+    </row>
+    <row r="15" ht="18.75" customHeight="1">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+    </row>
+    <row r="16" ht="18.75" customHeight="1">
+      <c r="A16" s="31"/>
+      <c r="B16" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="59" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+    </row>
+    <row r="17" ht="18.75" customHeight="1">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="57"/>
-      <c r="B28" s="58" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="31"/>
+      <c r="Z17" s="31"/>
+    </row>
+    <row r="18" ht="18.75" customHeight="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="57"/>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="57"/>
-      <c r="B30" s="59" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+    </row>
+    <row r="19" ht="18.75" customHeight="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="59" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+    </row>
+    <row r="20" ht="18.75" customHeight="1">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
+      <c r="A21" s="31"/>
+      <c r="B21" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-    </row>
-    <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="57"/>
-    </row>
-    <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="57"/>
-      <c r="B33" s="59" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+    </row>
+    <row r="22" ht="18.75" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+    </row>
+    <row r="23" ht="18.75" customHeight="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-    </row>
-    <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="57"/>
-      <c r="B34" s="58" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="31"/>
+    </row>
+    <row r="24" ht="18.75" customHeight="1">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+    </row>
+    <row r="25" ht="18.75" customHeight="1">
+      <c r="A25" s="31"/>
+      <c r="B25" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-    </row>
-    <row r="35" ht="18.75" customHeight="1"/>
-    <row r="36" ht="18.75" customHeight="1"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="31"/>
+      <c r="Z25" s="31"/>
+    </row>
+    <row r="26" ht="18.75" customHeight="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="31"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="31"/>
+      <c r="B29" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="31"/>
+      <c r="B30" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+    </row>
+    <row r="31" ht="18.75" customHeight="1">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+    </row>
+    <row r="32" ht="18.75" customHeight="1">
+      <c r="A32" s="31"/>
+      <c r="B32" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+    </row>
+    <row r="33" ht="18.75" customHeight="1">
+      <c r="A33" s="31"/>
+      <c r="B33" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+    </row>
+    <row r="34" ht="18.75" customHeight="1">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+    </row>
+    <row r="35" ht="18.75" customHeight="1">
+      <c r="A35" s="31"/>
+      <c r="B35" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+    </row>
+    <row r="36" ht="18.75" customHeight="1">
+      <c r="A36" s="31"/>
+      <c r="B36" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+    </row>
     <row r="37" ht="18.75" customHeight="1"/>
     <row r="38" ht="18.75" customHeight="1"/>
     <row r="39" ht="18.75" customHeight="1"/>
@@ -31949,16 +32154,16 @@
     <row r="993" ht="18.75" customHeight="1"/>
     <row r="994" ht="18.75" customHeight="1"/>
     <row r="995" ht="18.75" customHeight="1"/>
-    <row r="996" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="E2:I2"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
